--- a/Template_Quanti_XIC.xlsx
+++ b/Template_Quanti_XIC.xlsx
@@ -5,23 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mon Drive\Master Chemoinformatcis+\StageM1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpier\Documents\code\Python\StageM1\XIC_formating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412AFAC8-FD03-4DF5-8C94-ACCD15BF93A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D516E331-C4D2-4079-9D81-4B9460FBD9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="867" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1410" windowWidth="19200" windowHeight="11170" tabRatio="867" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Invoice" sheetId="89" r:id="rId1"/>
-    <sheet name="Quanti XIC" sheetId="114" r:id="rId2"/>
-    <sheet name="Feuil1" sheetId="115" r:id="rId3"/>
+    <sheet name="Quanti XIC" sheetId="114" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="115" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_Hlt95795822" localSheetId="0">Invoice!#REF!</definedName>
-    <definedName name="_Hlt95795836" localSheetId="0">Invoice!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice!$A$1:$G$12</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -38,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
-  <si>
-    <t>Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>LEGEND:</t>
   </si>
@@ -64,30 +55,6 @@
     <t>&gt;= 31 spectra</t>
   </si>
   <si>
-    <t>Invoice - Plateforme Proteomique Strasbourg Esplanade</t>
-  </si>
-  <si>
-    <t>Name of the applicant</t>
-  </si>
-  <si>
-    <t>Date of analysis</t>
-  </si>
-  <si>
-    <t>Number of analyses</t>
-  </si>
-  <si>
-    <t>Price  U. € exclusive of tax</t>
-  </si>
-  <si>
-    <t>Laboratory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total  : </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> in solution trypsin digestion</t>
-  </si>
-  <si>
     <t>Sorting</t>
   </si>
   <si>
@@ -115,50 +82,7 @@
     <t>cross assignment</t>
   </si>
   <si>
-    <t>B.Besson</t>
-  </si>
-  <si>
-    <t>IBMC (eq Pfeffer et Imler)</t>
-  </si>
-  <si>
-    <t>2023_S49</t>
-  </si>
-  <si>
-    <t>PLATEFORME PROTEOMIQUE STRASBOURG ESPLANADE                                                                                      IBMC UAR1589 CNRS                                                                                                                                                                              2 allée Konrad Roentgen, 67084 Strasbourg cedex                                                                                                                Tel: 03 88 41 70 03 / 71 26</t>
-  </si>
-  <si>
-    <r>
-      <t>Contact</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    proteomic-esplanade@unistra.fr                                                                                         Philippe Hammann: p.hammann@ibmc-cnrs.unistra.fr        Johana Chicher : j.chicher@ibmc-cnrs.unistra.fr       </t>
-    </r>
-  </si>
-  <si>
-    <t>Arrival week code</t>
-  </si>
-  <si>
     <t>nanoLC-MSMS RESULTS: protein Identification , Spectral count and quantification MS1 label-free (XIC)</t>
-  </si>
-  <si>
-    <t>16 LC-MS/MS with a 100 mn nanoLC gradient TIMS-TOF PRO2</t>
   </si>
 </sst>
 </file>
@@ -169,7 +93,7 @@
     <numFmt numFmtId="164" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_ * #,##0_)\ &quot;€&quot;_ ;_ * \(#,##0\)\ &quot;€&quot;_ ;_ * &quot;-&quot;_)\ &quot;€&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -211,19 +135,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color indexed="12"/>
@@ -256,58 +167,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Comic Sans MS"/>
-      <family val="4"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Comic Sans MS"/>
-      <family val="4"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -337,19 +196,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -372,20 +224,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -580,81 +418,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -684,102 +452,56 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -820,19 +542,19 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -844,27 +566,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -877,34 +599,34 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -934,75 +656,59 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="102" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="102" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="93"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="93" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="93" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="93" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="93" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="93" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="93" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1010,14 +716,14 @@
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="93" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="93" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="93" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="93" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="93" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="93" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="93" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="93" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="93" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="93" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="93" applyAlignment="1">
@@ -1029,118 +735,20 @@
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="93" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" xfId="93" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" xfId="93" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="93" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" xfId="93" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" xfId="93" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="93" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" xfId="93" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" xfId="93" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" xfId="93" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" xfId="93" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="238"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="93" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="93" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="6" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="1" xfId="93" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="93" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="93" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="93" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="3" xfId="93" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="93" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="93" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="93" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="93" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="93" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="93" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="93" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="93" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="93" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="3" xfId="93" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="4" xfId="93" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" xfId="93" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="238"/>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" xfId="93" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1709,177 +1317,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G12"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="62.54296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="97.26953125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="11.453125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="F4" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="49"/>
-    </row>
-    <row r="5" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-    </row>
-    <row r="6" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="31"/>
-    </row>
-    <row r="9" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="60">
-        <v>45268</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="36">
-        <v>16</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="40">
-        <v>104.88</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="32">
-        <f>D9*F9</f>
-        <v>1678.08</v>
-      </c>
-      <c r="G11" s="33"/>
-    </row>
-    <row r="12" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
-  </mergeCells>
-  <pageMargins left="0.39370078740157483" right="0.23622047244094491" top="0.70866141732283472" bottom="0.55118110236220474" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;12SA_2008</oddHeader>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C299A49A-7DB9-45B7-9CF3-A33F180101AB}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -1892,216 +1329,216 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="10.90625" style="27"/>
+    <col min="1" max="4" width="10.90625" style="21"/>
     <col min="5" max="5" width="10.90625" style="2"/>
-    <col min="6" max="12" width="10.90625" style="27"/>
+    <col min="6" max="12" width="10.90625" style="21"/>
     <col min="13" max="13" width="10.90625" style="2"/>
-    <col min="14" max="19" width="10.90625" style="27"/>
+    <col min="14" max="19" width="10.90625" style="21"/>
     <col min="20" max="21" width="10.90625" style="2"/>
-    <col min="22" max="23" width="10.90625" style="18"/>
+    <col min="22" max="23" width="10.90625" style="12"/>
     <col min="24" max="25" width="10.90625" style="2"/>
-    <col min="26" max="27" width="10.90625" style="18"/>
+    <col min="26" max="27" width="10.90625" style="12"/>
     <col min="28" max="29" width="10.90625" style="2"/>
-    <col min="30" max="31" width="10.90625" style="18"/>
+    <col min="30" max="31" width="10.90625" style="12"/>
     <col min="32" max="33" width="10.90625" style="2"/>
-    <col min="34" max="35" width="10.90625" style="18"/>
+    <col min="34" max="35" width="10.90625" style="12"/>
     <col min="36" max="46" width="10.90625" style="2"/>
-    <col min="47" max="16384" width="10.90625" style="27"/>
+    <col min="47" max="16384" width="10.90625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="14" customFormat="1" ht="25" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
+    <row r="1" spans="1:46" s="8" customFormat="1" ht="25" x14ac:dyDescent="0.5">
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
     </row>
-    <row r="2" spans="1:46" s="15" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="62"/>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="62"/>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62"/>
-      <c r="AQ2" s="62"/>
-      <c r="AR2" s="62"/>
-      <c r="AS2" s="62"/>
-      <c r="AT2" s="62"/>
+    <row r="2" spans="1:46" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="22"/>
     </row>
     <row r="3" spans="1:46" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-      <c r="AT3" s="17"/>
+      <c r="D3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="12"/>
+      <c r="AT3" s="11"/>
     </row>
     <row r="4" spans="1:46" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="G4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="P4" s="1"/>
-      <c r="V4" s="9" t="s">
-        <v>16</v>
+      <c r="V4" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:46" s="2" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="G6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
       <c r="J6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N6" s="23"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="17"/>
       <c r="O6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V6" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="V6" s="4"/>
       <c r="W6" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G7" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="G7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
       <c r="J7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="15"/>
       <c r="O7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="V7" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="V7" s="6"/>
       <c r="W7" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G8" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="G8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
       <c r="J8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="25"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="19"/>
       <c r="O8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V8" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="V8" s="5"/>
       <c r="W8" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:46" s="2" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="G9" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
+      <c r="G9" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
       <c r="J9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2123,7 +1560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA80B0EB-EDD3-4A9F-B875-4C6D2B8D0447}">
   <dimension ref="A1"/>
   <sheetViews>
